--- a/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="进度计划与控制工作量统计表" sheetId="1" r:id="rId1"/>
-    <sheet name="项目计划修改记录表" sheetId="2" r:id="rId2"/>
+    <sheet name="进度计划与控制分析报告修改表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>进度计划与控制工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目计划修改记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,30 @@
   </si>
   <si>
     <t>初始文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划与控制分析报告修改记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化进度计划与控制分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时(h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +224,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,17 +259,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -445,26 +493,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:C14"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="姓名" dataDxfId="9"/>
-    <tableColumn id="2" name="完成的文档" dataDxfId="8"/>
-    <tableColumn id="3" name="总耗时(h)" dataDxfId="7"/>
+    <tableColumn id="1" name="姓名" dataDxfId="10"/>
+    <tableColumn id="2" name="完成的文档" dataDxfId="9"/>
+    <tableColumn id="3" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:E24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:E24"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="修改人" dataDxfId="6"/>
-    <tableColumn id="2" name="修改日期" dataDxfId="5"/>
-    <tableColumn id="3" name="版本" dataDxfId="4"/>
-    <tableColumn id="4" name="变更情况" dataDxfId="3"/>
-    <tableColumn id="5" name="变更原因" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F24"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="修改人" dataDxfId="5"/>
+    <tableColumn id="2" name="修改日期" dataDxfId="4"/>
+    <tableColumn id="3" name="版本" dataDxfId="3"/>
+    <tableColumn id="4" name="变更情况" dataDxfId="2"/>
+    <tableColumn id="5" name="变更原因" dataDxfId="1"/>
+    <tableColumn id="6" name="耗时(h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -747,11 +796,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -790,63 +839,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>43920</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>43920</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43922</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>进度计划与控制工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,22 @@
   </si>
   <si>
     <t>耗时(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计阶段性数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,10 +281,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,11 +812,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -842,7 +858,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -854,13 +870,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -878,7 +894,7 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -898,7 +914,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
     </row>
@@ -918,69 +934,86 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="6"/>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43939</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>进度计划与控制工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,38 @@
   </si>
   <si>
     <t>V1.0.0.200418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计阶段性数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.2.200421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新任务分工与工时分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.3.200423</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,7 +890,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -958,11 +990,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="5"/>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43942</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43944</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" s="5"/>

--- a/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="进度计划与控制工作量统计表" sheetId="1" r:id="rId1"/>
@@ -128,22 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始项目计划，只细分了第二周的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进度计划与控制分析报告修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +189,22 @@
   </si>
   <si>
     <t>V1.0.3.200423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计阶段性数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.4.200604</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,15 +299,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -553,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="修改人" dataDxfId="5"/>
     <tableColumn id="2" name="修改日期" dataDxfId="4"/>
@@ -844,11 +841,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -887,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -902,13 +899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -926,56 +923,56 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43922</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43939</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43920</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43922</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4">
-        <v>43939</v>
+      <c r="B5" s="3">
+        <v>43942</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -986,16 +983,16 @@
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4">
-        <v>43942</v>
+      <c r="B6" s="3">
+        <v>43944</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -1006,16 +1003,16 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
+      <c r="F6" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4">
-        <v>43944</v>
+      <c r="B7" s="3">
+        <v>43986</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -1026,60 +1023,57 @@
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="5"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="5"/>
+      <c r="F23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验6 软件进度计划与控制工作统计.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="进度计划与控制工作量统计表" sheetId="1" r:id="rId1"/>
-    <sheet name="进度计划与控制分析报告修改表" sheetId="2" r:id="rId2"/>
+    <sheet name="进度计划与控制分析报告修改表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,31 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>进度计划与控制工作量统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成的文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总耗时(h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目计划V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>修改日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +188,10 @@
   </si>
   <si>
     <t>阶段性更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +217,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -299,28 +271,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -449,81 +418,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -538,18 +432,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A2:C14"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="姓名" dataDxfId="10"/>
-    <tableColumn id="2" name="完成的文档" dataDxfId="9"/>
-    <tableColumn id="3" name="总耗时(h)" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:F23"/>
   <tableColumns count="6">
@@ -826,63 +708,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -899,181 +724,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
         <v>43939</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
         <v>43942</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
         <v>43944</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
         <v>43986</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="4"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="4"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="4"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="4"/>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
